--- a/docs/worktime_recording.xlsx
+++ b/docs/worktime_recording.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\WorkTimeRecording\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160212C3-213A-4948-9F32-F2AEA32A4DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF559B4D-447B-4EDC-864E-10BB3BFCA2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-1275" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="2" xr2:uid="{4F42EFF5-303F-442E-86D7-296FCA187AD1}"/>
+    <workbookView xWindow="-83" yWindow="-83" windowWidth="28965" windowHeight="15646" firstSheet="1" activeTab="2" xr2:uid="{4F42EFF5-303F-442E-86D7-296FCA187AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="2" r:id="rId1"/>
     <sheet name="Glossar" sheetId="1" r:id="rId2"/>
     <sheet name="Raspberry " sheetId="4" r:id="rId3"/>
+    <sheet name="Relais" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -259,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="116">
   <si>
     <t>Richtlinien für Lichtsignalanlagen (RiLSA)</t>
   </si>
@@ -489,24 +490,6 @@
     <t>EPC</t>
   </si>
   <si>
-    <t>LED Grün (GPIOD)</t>
-  </si>
-  <si>
-    <t>LED Gelb (GPIOD)</t>
-  </si>
-  <si>
-    <t>LED Rot (GPIOD)</t>
-  </si>
-  <si>
-    <t>Taster 1 (GPIOD)</t>
-  </si>
-  <si>
-    <t>Taster 2 (GPIOD)</t>
-  </si>
-  <si>
-    <t>Summer (GPIOD)</t>
-  </si>
-  <si>
     <t>SPI MOSI</t>
   </si>
   <si>
@@ -574,6 +557,57 @@
   </si>
   <si>
     <t>motion sensor</t>
+  </si>
+  <si>
+    <t>DC +</t>
+  </si>
+  <si>
+    <t>DC -</t>
+  </si>
+  <si>
+    <t>IN 1</t>
+  </si>
+  <si>
+    <t>IN 2</t>
+  </si>
+  <si>
+    <t>NC1</t>
+  </si>
+  <si>
+    <t>COM1</t>
+  </si>
+  <si>
+    <t>NO1</t>
+  </si>
+  <si>
+    <t>NC2</t>
+  </si>
+  <si>
+    <t>COM2</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>relais 1</t>
+  </si>
+  <si>
+    <t>LED green (GPIOD)</t>
+  </si>
+  <si>
+    <t>LED yelow (GPIOD)</t>
+  </si>
+  <si>
+    <t>LED red (GPIOD)</t>
+  </si>
+  <si>
+    <t>buzzer (GPIOD)</t>
+  </si>
+  <si>
+    <t>push button 1 (GPIOD)</t>
+  </si>
+  <si>
+    <t>push button 2 (GPIOD)</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1610,7 @@
   <dimension ref="B1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1625,18 +1659,18 @@
       <c r="K3" s="14"/>
       <c r="N3" s="15"/>
       <c r="O3" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="38" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" s="15"/>
       <c r="C4" s="36" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="37"/>
@@ -1648,7 +1682,7 @@
       <c r="K4" s="16"/>
       <c r="N4" s="15"/>
       <c r="O4" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="38"/>
@@ -1667,7 +1701,7 @@
       <c r="K5" s="16"/>
       <c r="N5" s="15"/>
       <c r="O5" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="38"/>
@@ -1694,7 +1728,7 @@
       <c r="K6" s="16"/>
       <c r="N6" s="15"/>
       <c r="O6" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="38"/>
@@ -1723,7 +1757,7 @@
       <c r="K7" s="16"/>
       <c r="N7" s="15"/>
       <c r="O7" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="38"/>
@@ -1779,7 +1813,7 @@
       <c r="K9" s="16"/>
       <c r="N9" s="15"/>
       <c r="O9" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="38"/>
@@ -1803,7 +1837,7 @@
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K10" s="16"/>
       <c r="N10" s="15"/>
@@ -1831,7 +1865,9 @@
         <v>18</v>
       </c>
       <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="K11" s="16"/>
       <c r="N11" s="18"/>
       <c r="O11" s="19"/>
@@ -1882,7 +1918,7 @@
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="R13" s="14"/>
     </row>
@@ -1907,7 +1943,7 @@
       <c r="K14" s="16"/>
       <c r="N14" s="15"/>
       <c r="O14" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="40"/>
@@ -1916,7 +1952,7 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" s="15"/>
       <c r="C15" s="21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="7">
@@ -1936,7 +1972,7 @@
       <c r="K15" s="16"/>
       <c r="N15" s="15"/>
       <c r="O15" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="40"/>
@@ -1945,7 +1981,7 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" s="15"/>
       <c r="C16" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7">
@@ -1962,12 +1998,12 @@
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="28" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K16" s="16"/>
       <c r="N16" s="15"/>
       <c r="O16" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="40"/>
@@ -1976,7 +2012,7 @@
     <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="15"/>
       <c r="C17" s="21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="7">
@@ -1993,7 +2029,7 @@
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K17" s="16"/>
       <c r="N17" s="15"/>
@@ -2079,7 +2115,7 @@
     <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="15"/>
       <c r="C21" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="7">
@@ -2096,21 +2132,21 @@
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="17" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K21" s="16"/>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="39" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R21" s="14"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="15"/>
       <c r="C22" s="5" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="7">
@@ -2130,7 +2166,7 @@
       <c r="K22" s="16"/>
       <c r="N22" s="15"/>
       <c r="O22" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="40"/>
@@ -2139,7 +2175,7 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="15"/>
       <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="7">
@@ -2159,7 +2195,7 @@
       <c r="K23" s="16"/>
       <c r="N23" s="15"/>
       <c r="O23" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="40"/>
@@ -2168,7 +2204,7 @@
     <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="15"/>
       <c r="C24" s="5" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="7">
@@ -2185,12 +2221,12 @@
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="17" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="K24" s="16"/>
       <c r="N24" s="15"/>
       <c r="O24" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="40"/>
@@ -2214,12 +2250,12 @@
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="17" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K25" s="16"/>
       <c r="N25" s="15"/>
       <c r="O25" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="40"/>
@@ -2286,7 +2322,7 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="R30" s="31"/>
     </row>
@@ -2301,7 +2337,7 @@
     <row r="32" spans="2:18" x14ac:dyDescent="0.45">
       <c r="N32" s="4"/>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q32" s="43"/>
       <c r="R32" s="32"/>
@@ -2332,6 +2368,63 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1072A6-64C4-43EE-92C0-9FE11ADC2E61}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2347,6 +2440,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C49529AA0DD8A041A72B9697D13F17FC" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5b6697dc2c1d9128de7ac2649ed4920b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="803f3b54-ba13-4585-8df1-dacf9026e6f8" xmlns:ns3="70de681e-dc61-4a6c-bf0d-90ad34a7232c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80622d0313dec166a60b9128b06bf88d" ns2:_="" ns3:_="">
     <xsd:import namespace="803f3b54-ba13-4585-8df1-dacf9026e6f8"/>
@@ -2541,15 +2643,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{612EAF4C-B134-45E8-B6C7-9E41CAEF278E}">
   <ds:schemaRefs>
@@ -2568,6 +2661,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F359E4-7C92-4C64-B8E6-DE729C6DC94E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEFDA22-83DA-47F0-B165-6ADD22FC56AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2584,12 +2685,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F359E4-7C92-4C64-B8E6-DE729C6DC94E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>